--- a/storage/templates/projects_template.xlsx
+++ b/storage/templates/projects_template.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Projects Import Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Projects" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,87 +444,27 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>reservation_duration_days</t>
+          <t>owner_name</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>owner_name</t>
+          <t>city_name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>city_name</t>
+          <t>neighborhood</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>neighborhood</t>
+          <t>project_type_name</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>project_type_name</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
           <t>status_name</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>status_reason</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>land_area</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>built_up_area</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>selling_space</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>sellable_area_factor</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>floor_area_ratio</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>no_of_floors</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>number_of_units</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>budget</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>warranty</t>
         </is>
       </c>
     </row>
@@ -536,77 +476,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>880e8400-e29b-41d4-a716-446655440333</t>
+          <t>111e8400-e29b-41d4-a716-446655440001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Residential Project</t>
+          <t>Project One</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>30</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Al Yasmin</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PRJ-002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>222e8400-e29b-41d4-a716-446655440002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Project Two</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>30</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Alramz</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Riyadh</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Al Yasmin</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Near King Fahad Road</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Jeddah</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Al Rawdah</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Residential</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>15000</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9500</v>
-      </c>
-      <c r="O2" t="n">
-        <v>8200</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R2" t="n">
-        <v>12</v>
-      </c>
-      <c r="S2" t="n">
-        <v>180</v>
-      </c>
-      <c r="T2" t="n">
-        <v>220000000</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PRJ-003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>333e8400-e29b-41d4-a716-446655440003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Project Three</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dammam</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Al Shati</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
       </c>
     </row>
   </sheetData>
